--- a/STM32/SpcMenuStruct.xlsx
+++ b/STM32/SpcMenuStruct.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Actual Init</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,22 @@
   </si>
   <si>
     <t>Test GFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static Reset No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static Reset Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static Reset Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ～ 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M15"/>
+  <dimension ref="B3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1004,6 +1020,35 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
